--- a/Part2/level31/fountainOfObjects/World Map.xlsx
+++ b/Part2/level31/fountainOfObjects/World Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\source\PlayersGuide\Part2\level31\fountainOfObjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84403341-8F83-48DB-B1E6-6AD8868D5176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6E8792-D7E7-4712-8744-90676EEC8735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1245" yWindow="195" windowWidth="26265" windowHeight="15210" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
   </bookViews>
@@ -225,13 +225,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,24 +247,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -588,7 +585,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -597,354 +594,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Q1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:26" ht="28.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="4">
+      <c r="H3" s="9"/>
+      <c r="I3" s="3">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>3</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="3">
         <v>4</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="3">
         <v>5</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="4">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="3">
         <v>0</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>1</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>2</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>3</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>4</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <v>5</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="3">
         <v>6</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="11" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="11" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>0</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="11" t="s">
+      <c r="S4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="11"/>
-      <c r="H5" s="4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="11"/>
-      <c r="Q5" s="4">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="15"/>
+      <c r="Q5" s="3">
         <v>1</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="11"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="15"/>
     </row>
     <row r="6" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="11"/>
-      <c r="Q6" s="4">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="15"/>
+      <c r="Q6" s="3">
         <v>2</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="11"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="15"/>
     </row>
     <row r="7" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="4">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="3">
         <v>3</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="11"/>
-      <c r="Q7" s="4">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="15"/>
+      <c r="Q7" s="3">
         <v>3</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="11"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="H8" s="14">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="11"/>
-      <c r="Q8" s="4">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="15"/>
+      <c r="Q8" s="3">
         <v>4</v>
       </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="11"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="14">
+      <c r="H9" s="3">
         <v>5</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="11"/>
-      <c r="Q9" s="4">
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="15"/>
+      <c r="Q9" s="3">
         <v>5</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="11"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="Q10" s="4">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="Q10" s="3">
         <v>6</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="11"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>7</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="11"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
     </row>
     <row r="14" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="Z4:Z11"/>
-    <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="M14:P14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="O4:O9"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Z4:Z11"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="M14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Part2/level31/fountainOfObjects/World Map.xlsx
+++ b/Part2/level31/fountainOfObjects/World Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\source\PlayersGuide\Part2\level31\fountainOfObjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6E8792-D7E7-4712-8744-90676EEC8735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53711A2A-328A-4268-85F2-D7C869D46ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="195" windowWidth="26265" windowHeight="15210" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
+    <workbookView xWindow="10170" yWindow="30" windowWidth="26265" windowHeight="15210" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Maps" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Entrance/Exit</t>
   </si>
@@ -58,12 +58,15 @@
   <si>
     <t>Large</t>
   </si>
+  <si>
+    <t>Pit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +96,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +127,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -219,13 +234,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
@@ -253,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -262,11 +278,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -582,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92347B4F-5DD5-4662-9314-81B63A796328}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -726,7 +751,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="15"/>
@@ -734,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="S5" s="19"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="10"/>
@@ -748,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="15"/>
@@ -802,18 +827,18 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="W7" s="20"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="H8" s="3">
         <v>4</v>
       </c>
@@ -830,7 +855,7 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
@@ -846,7 +871,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="15"/>
       <c r="Q9" s="3">
         <v>5</v>
@@ -862,18 +887,18 @@
       <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
       <c r="Q10" s="3">
         <v>6</v>
       </c>
-      <c r="R10" s="10"/>
+      <c r="R10" s="20"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -898,48 +923,58 @@
       <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="17"/>
+      <c r="M16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Z4:Z11"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="M14:P14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="O4:O9"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="Z4:Z11"/>
-    <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="M14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Part2/level31/fountainOfObjects/World Map.xlsx
+++ b/Part2/level31/fountainOfObjects/World Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\source\PlayersGuide\Part2\level31\fountainOfObjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53711A2A-328A-4268-85F2-D7C869D46ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD9FFEF-7CD4-46E9-BFC1-1EBC6D7DBFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="30" windowWidth="26265" windowHeight="15210" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Maps" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Entrance/Exit</t>
   </si>
@@ -61,12 +61,15 @@
   <si>
     <t>Pit</t>
   </si>
+  <si>
+    <t>Maelstrom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +106,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +142,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -234,14 +250,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
@@ -269,7 +286,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -278,19 +303,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -607,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92347B4F-5DD5-4662-9314-81B63A796328}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -619,27 +642,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="Q1" s="14" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" spans="1:26" ht="28.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,7 +732,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="3">
@@ -720,7 +743,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="3">
@@ -732,7 +755,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="19" t="s">
         <v>2</v>
       </c>
     </row>
@@ -740,43 +763,43 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="19"/>
       <c r="H5" s="3">
         <v>1</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="19"/>
       <c r="Q5" s="3">
         <v>1</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="19"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+      <c r="W5" s="23"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="15"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="19"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="19"/>
       <c r="H6" s="3">
         <v>2</v>
       </c>
@@ -784,9 +807,8 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="15"/>
+      <c r="O6" s="19"/>
       <c r="Q6" s="3">
         <v>2</v>
       </c>
@@ -798,7 +820,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="15"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -808,37 +830,36 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="19"/>
       <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="3"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="19"/>
       <c r="Q7" s="3">
         <v>3</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="20"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="15"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="H8" s="3">
         <v>4</v>
       </c>
@@ -848,19 +869,19 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="19"/>
       <c r="Q8" s="3">
         <v>4</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="20"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="15"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="3">
@@ -871,8 +892,8 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="19"/>
       <c r="Q9" s="3">
         <v>5</v>
       </c>
@@ -884,21 +905,21 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="15"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
       <c r="Q10" s="3">
         <v>6</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -906,7 +927,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="15"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q11" s="3">
@@ -920,61 +941,71 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="15"/>
+      <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="17"/>
-      <c r="M16" s="18" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="12:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="22"/>
+      <c r="M17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O4:O9"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F4:F7"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Z4:Z11"/>
     <mergeCell ref="R12:Y12"/>
     <mergeCell ref="M14:P14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O4:O9"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Part2/level31/fountainOfObjects/World Map.xlsx
+++ b/Part2/level31/fountainOfObjects/World Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\source\PlayersGuide\Part2\level31\fountainOfObjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD9FFEF-7CD4-46E9-BFC1-1EBC6D7DBFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F95F72-53E2-4EB3-90C9-1B3DEF7CD058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -763,9 +763,8 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="21"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3"/>
       <c r="F5" s="19"/>
       <c r="H5" s="3">
@@ -804,8 +803,8 @@
         <v>2</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="3"/>
       <c r="N6" s="10"/>
       <c r="O6" s="19"/>
@@ -835,8 +834,8 @@
         <v>3</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="3"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>

--- a/Part2/level31/fountainOfObjects/World Map.xlsx
+++ b/Part2/level31/fountainOfObjects/World Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\source\PlayersGuide\Part2\level31\fountainOfObjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F95F72-53E2-4EB3-90C9-1B3DEF7CD058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79384A3B-1C9B-4A0B-A1DF-6C282D2B8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
+    <workbookView xWindow="10170" yWindow="30" windowWidth="26265" windowHeight="15210" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Maps" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Entrance/Exit</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Maelstrom</t>
+  </si>
+  <si>
+    <t>Amarok</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +151,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -250,15 +259,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
@@ -291,10 +301,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -303,17 +318,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -630,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92347B4F-5DD5-4662-9314-81B63A796328}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,27 +658,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
     </row>
     <row r="2" spans="1:26" ht="28.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,18 +748,18 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="25"/>
       <c r="L4" s="3"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="3">
@@ -755,7 +771,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="22" t="s">
         <v>2</v>
       </c>
     </row>
@@ -763,10 +779,11 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
+      <c r="B5" s="24"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="22"/>
       <c r="H5" s="3">
         <v>1</v>
       </c>
@@ -776,19 +793,19 @@
       <c r="L5" s="14"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="19"/>
+      <c r="O5" s="22"/>
       <c r="Q5" s="3">
         <v>1</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="14"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="U5" s="25"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="23"/>
+      <c r="W5" s="18"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
-      <c r="Z5" s="19"/>
+      <c r="Z5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -798,16 +815,16 @@
       <c r="C6" s="14"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="22"/>
       <c r="H6" s="3">
         <v>2</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="10"/>
       <c r="L6" s="3"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="22"/>
       <c r="Q6" s="3">
         <v>2</v>
       </c>
@@ -819,7 +836,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="19"/>
+      <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -829,28 +846,28 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="22"/>
       <c r="H7" s="3">
         <v>3</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="19"/>
+      <c r="O7" s="22"/>
       <c r="Q7" s="3">
         <v>3</v>
       </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="S7" s="25"/>
       <c r="U7" s="3"/>
       <c r="V7" s="10"/>
       <c r="W7" s="15"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
-      <c r="Z7" s="19"/>
+      <c r="Z7" s="22"/>
     </row>
     <row r="8" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
@@ -868,19 +885,19 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="19"/>
+      <c r="O8" s="22"/>
       <c r="Q8" s="3">
         <v>4</v>
       </c>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
-      <c r="T8" s="23"/>
+      <c r="T8" s="18"/>
       <c r="U8" s="15"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="19"/>
+      <c r="Z8" s="22"/>
     </row>
     <row r="9" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="3">
@@ -892,7 +909,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="19"/>
+      <c r="O9" s="22"/>
       <c r="Q9" s="3">
         <v>5</v>
       </c>
@@ -904,7 +921,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="19"/>
+      <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="20" t="s">
@@ -923,10 +940,10 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="W10" s="26"/>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="19"/>
+      <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q11" s="3">
@@ -940,7 +957,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="19"/>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R12" s="20" t="s">
@@ -956,42 +973,56 @@
     </row>
     <row r="14" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L14" s="1"/>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L16" s="13"/>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="12:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L17" s="22"/>
-      <c r="M17" s="16" t="s">
+      <c r="L17" s="17"/>
+      <c r="M17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="12:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="24"/>
+      <c r="M18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="Z4:Z11"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="H1:L1"/>
@@ -1001,10 +1032,6 @@
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="M16:P16"/>
     <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="Z4:Z11"/>
-    <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="M14:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Part2/level31/fountainOfObjects/World Map.xlsx
+++ b/Part2/level31/fountainOfObjects/World Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\source\PlayersGuide\Part2\level31\fountainOfObjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79384A3B-1C9B-4A0B-A1DF-6C282D2B8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7637B3E-2785-4129-AF5C-E241D968D696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10170" yWindow="30" windowWidth="26265" windowHeight="15210" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
+    <workbookView xWindow="1665" yWindow="135" windowWidth="26265" windowHeight="15210" xr2:uid="{6A7CC8C8-4FBE-4BE3-8BE2-003D72723DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Maps" sheetId="1" r:id="rId1"/>
@@ -972,66 +972,66 @@
       <c r="Y12" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L14" s="1"/>
-      <c r="M14" s="23" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L15" s="2"/>
-      <c r="M15" s="23" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="13"/>
-      <c r="M16" s="19" t="s">
+      <c r="H16" s="13"/>
+      <c r="I16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-    </row>
-    <row r="17" spans="12:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L17" s="17"/>
-      <c r="M17" s="19" t="s">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="8:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="17"/>
+      <c r="I17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="12:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L18" s="24"/>
-      <c r="M18" s="19" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="8:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="24"/>
+      <c r="I18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="Z4:Z11"/>
     <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="O4:O9"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
